--- a/biology/Botanique/Central_Park_(Louisville)/Central_Park_(Louisville).xlsx
+++ b/biology/Botanique/Central_Park_(Louisville)/Central_Park_(Louisville).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Central Park est un parc municipal de 6,9 ha situé au centre de la ville de Louisville (Kentucky) dans le quartier de Old Louisville. Il apparut déjà dans les années 1870 sous le nom de DuPont Square. 
